--- a/Barras, pares y grados de libertad.xlsx
+++ b/Barras, pares y grados de libertad.xlsx
@@ -1682,8 +1682,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AFE76BA234C16E479EEC3A67FE188476" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3b1c3f8ef94f5de2845e45948156c12">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e8d4c1-94a2-438c-9c87-afd432b33b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5fa342ee4b9d97da9960f7347859194b" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AFE76BA234C16E479EEC3A67FE188476" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9293dd98efaf01bdfcb96b932a862a27">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e8d4c1-94a2-438c-9c87-afd432b33b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec53043c2129aac900b8d1d40a3c4caa" ns2:_="">
     <xsd:import namespace="23e8d4c1-94a2-438c-9c87-afd432b33b86"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1693,6 +1693,7 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1713,6 +1714,11 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
     <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
@@ -1723,8 +1729,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1822,5 +1828,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC802C8F-588B-4645-BAAC-F715D1BB927D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CDF4B7-4BAA-40AF-8C2E-51FC48FEEE1C}"/>
 </file>
--- a/Barras, pares y grados de libertad.xlsx
+++ b/Barras, pares y grados de libertad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C0AFA58-22BD-4EA3-92E4-465993EB3225}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{B69B1C11-5624-405C-A33B-F0D19CDB1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7809BEF-A358-4E12-AF5F-B9E11A813E77}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_56F9DC9755BA473782653E2940F9ResponseSheet">"Form1"</definedName>
     <definedName name="_56F9DC9755BA473782653E2940F9SourceDocId">"{87edf153-8efb-497e-8eb9-124115f56666}"</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -307,6 +307,144 @@
   </si>
   <si>
     <t>Aura Cristina Castrillon Cortes</t>
+  </si>
+  <si>
+    <t>pedro.londono@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Pedro Londono Perez</t>
+  </si>
+  <si>
+    <t>daniel.carmonal@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Daniel Carmona Lopez</t>
+  </si>
+  <si>
+    <t>jhon.jimenezf@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Jhon Jairo Jimenez Franco</t>
+  </si>
+  <si>
+    <t>pedro.gonzalezh@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Pedro Luis Gonzalez Hernandez</t>
+  </si>
+  <si>
+    <t>paulina.del@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Paulina Del Valle Jaramillo</t>
+  </si>
+  <si>
+    <t>Revoluta;Manivela;Corredera;</t>
+  </si>
+  <si>
+    <t>juanm.alvarez@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Juan Manuel Alvarez Araque</t>
+  </si>
+  <si>
+    <t>Revoluta;Prismático;Corredera;</t>
+  </si>
+  <si>
+    <t>samuel.maya@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Samuel Maya Gomez</t>
+  </si>
+  <si>
+    <t>juan.mesag@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Juan Fernando Mesa Granda</t>
+  </si>
+  <si>
+    <t>juans.lopezr@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Juan Sebastian Lopez Restrepo</t>
+  </si>
+  <si>
+    <t>martin.arboleda@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Martin Arboleda Torres</t>
+  </si>
+  <si>
+    <t>juan.gonzalezt@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Juan Jose Gonzalez Torres</t>
+  </si>
+  <si>
+    <t>carlos.caicedoo@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Carlos Andres Caicedo Ossa</t>
+  </si>
+  <si>
+    <t>nicolas.palacio@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Nicolas Palacio Arango</t>
+  </si>
+  <si>
+    <t>david.giraldos@upb.edu.co</t>
+  </si>
+  <si>
+    <t>David Giraldo Salazar</t>
+  </si>
+  <si>
+    <t>Corredera;</t>
+  </si>
+  <si>
+    <t>juanda.sierram@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Juan Daniel Sierra Maestre</t>
+  </si>
+  <si>
+    <t>daniel.buitrago@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Daniel Buitrago Delgado</t>
+  </si>
+  <si>
+    <t>Revoluta;Leva;Manivela;Corredera;</t>
+  </si>
+  <si>
+    <t>Prismático;Corredera;</t>
+  </si>
+  <si>
+    <t>daniel.diazco@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Daniel Diaz Cosme</t>
+  </si>
+  <si>
+    <t>Revoluta;Corredera;Prismático;</t>
+  </si>
+  <si>
+    <t>Prismático;Leva;</t>
+  </si>
+  <si>
+    <t>pablo.marin@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Pablo Marin Nieto</t>
+  </si>
+  <si>
+    <t>manuela.zuluagag@upb.edu.co</t>
+  </si>
+  <si>
+    <t>Manuela Zuluaga Gonzalez</t>
+  </si>
+  <si>
+    <t>Revoluta;Prismático;Leva;</t>
   </si>
   <si>
     <t>D6uLYaQg402hDOIM7pa7Nc65bCLB2HBAqjEPos7Hqx1UOEYxSU9LUFdVMjRHNDY1S0VPV0gwNjVTOSQlQCN0PWcu</t>
@@ -407,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I33" totalsRowShown="0">
-  <autoFilter ref="A1:I33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I56" totalsRowShown="0">
+  <autoFilter ref="A1:I56" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de inicio" dataDxfId="7"/>
@@ -721,7 +859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
@@ -1624,6 +1762,627 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44406.545092592591</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44406.546076388891</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44406.545532407406</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44406.547384259262</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44406.545648148145</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44406.547673611109</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44406.54619212963</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44406.547766203701</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44406.545844907407</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44406.547824074078</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44406.545914351853</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44406.547824074078</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44406.546655092592</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44406.54791666667</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44406.545277777775</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44406.548136574071</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44406.546423611115</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44406.548657407409</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44407.508032407408</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44407.509363425925</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44407.508425925924</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44407.510069444441</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44407.510138888887</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44407.51116898148</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44407.510729166665</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44407.511550925927</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44407.511562500003</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44407.511793981481</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44407.511817129627</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44407.512488425928</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44407.513298611113</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44407.513842592591</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44407.588159722225</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44407.590798611112</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44407.591099537036</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44407.591331018521</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44407.590324074074</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44407.591400462959</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44407.591493055559</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44407.591724537036</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44407.589513888888</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44407.592048611114</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44407.591967592591</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44407.592048611114</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44407.590833333335</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44407.592314814814</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1647,17 +2406,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1667,23 +2426,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AFE76BA234C16E479EEC3A67FE188476" ma:contentTypeVersion="3" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9293dd98efaf01bdfcb96b932a862a27">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e8d4c1-94a2-438c-9c87-afd432b33b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ec53043c2129aac900b8d1d40a3c4caa" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AFE76BA234C16E479EEC3A67FE188476" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c715eea166a0eacdf99011c3fd2725d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23e8d4c1-94a2-438c-9c87-afd432b33b86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="80e479af1baede30fd3ecb1fd26db2f3" ns2:_="">
     <xsd:import namespace="23e8d4c1-94a2-438c-9c87-afd432b33b86"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1694,6 +2438,11 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1717,6 +2466,33 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1819,8 +2595,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D457AB1E-30F0-4857-997C-44699EBA5F48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DA46C49-9D94-49C7-8811-2753BA653A97}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1828,5 +2619,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98CDF4B7-4BAA-40AF-8C2E-51FC48FEEE1C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D457AB1E-30F0-4857-997C-44699EBA5F48}"/>
 </file>